--- a/GATEWAY/A1#111ZUCCHETTIXX/Zucchetti_Centro_Sistema_s.p.a/JPATH/v.1/report_checklist.xlsx
+++ b/GATEWAY/A1#111ZUCCHETTIXX/Zucchetti_Centro_Sistema_s.p.a/JPATH/v.1/report_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\JPATH\v.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA0405-F6B5-4EE4-A0CA-9AB136F4A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D575832-1B67-4634-98BE-EEA1D408B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="161">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1499,6 +1499,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1522,7 +1523,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -2967,11 +2967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W587"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3013,12 +3013,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3039,14 +3039,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3067,12 +3067,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3094,12 +3094,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3120,8 +3120,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3256,7 +3256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>417</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>418</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>419</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>423</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>424</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>425</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>426</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>432</v>
       </c>
@@ -3653,9 +3653,7 @@
       <c r="E17" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="36">
-        <v>45692</v>
-      </c>
+      <c r="F17" s="36"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -3680,7 +3678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>433</v>
       </c>
@@ -3696,9 +3694,7 @@
       <c r="E18" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="36">
-        <v>45692</v>
-      </c>
+      <c r="F18" s="36"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -3723,7 +3719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>434</v>
       </c>
@@ -3739,9 +3735,7 @@
       <c r="E19" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="36">
-        <v>45692</v>
-      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -3766,7 +3760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>435</v>
       </c>
@@ -3782,9 +3776,7 @@
       <c r="E20" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="36">
-        <v>45693</v>
-      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -3809,7 +3801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>437</v>
       </c>
@@ -3854,7 +3846,9 @@
       <c r="P21" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="38"/>
+      <c r="Q21" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="R21" s="38" t="s">
         <v>47</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>438</v>
       </c>
@@ -3884,9 +3878,7 @@
       <c r="E22" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="36">
-        <v>45693</v>
-      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
@@ -3911,7 +3903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>440</v>
       </c>
@@ -3927,9 +3919,7 @@
       <c r="E23" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="36">
-        <v>45693</v>
-      </c>
+      <c r="F23" s="36"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -3954,7 +3944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>441</v>
       </c>
@@ -3970,9 +3960,7 @@
       <c r="E24" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="36">
-        <v>45693</v>
-      </c>
+      <c r="F24" s="36"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
@@ -3997,7 +3985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43">
         <v>442</v>
       </c>
@@ -4013,9 +4001,7 @@
       <c r="E25" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="45">
-        <v>45693</v>
-      </c>
+      <c r="F25" s="45"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
@@ -4040,7 +4026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="64" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
         <v>443</v>
       </c>
@@ -4060,7 +4046,9 @@
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="J26" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -4077,7 +4065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="64" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
         <v>460</v>
       </c>
@@ -10516,15 +10504,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10782,6 +10761,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10795,14 +10783,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10817,6 +10797,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111ZUCCHETTIXX/Zucchetti_Centro_Sistema_s.p.a/JPATH/v.1/report_checklist.xlsx
+++ b/GATEWAY/A1#111ZUCCHETTIXX/Zucchetti_Centro_Sistema_s.p.a/JPATH/v.1/report_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\JPATH\v.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D575832-1B67-4634-98BE-EEA1D408B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D4A26-8698-47C5-96D6-0ADBEF3012F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="161">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2971,7 +2971,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4049,9 @@
       <c r="J26" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -10504,6 +10506,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10761,28 +10784,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10799,29 +10826,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111ZUCCHETTIXX/Zucchetti_Centro_Sistema_s.p.a/JPATH/v.1/report_checklist.xlsx
+++ b/GATEWAY/A1#111ZUCCHETTIXX/Zucchetti_Centro_Sistema_s.p.a/JPATH/v.1/report_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\JPATH\v.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D4A26-8698-47C5-96D6-0ADBEF3012F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C9AA98-577C-4879-AE50-928DB9EB9E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,15 +677,6 @@
     <t>2025-02-04T08:57:42Z</t>
   </si>
   <si>
-    <t>4dc114a1575dadb8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.217782542506b70d0d2794d90bba9121da53d1a5db629365f6745654189891b3.f9dcf5e69a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-02-04T08:58:59Z</t>
-  </si>
-  <si>
     <t>2025-02-04T09:12:07Z</t>
   </si>
   <si>
@@ -735,6 +726,15 @@
   </si>
   <si>
     <t>Per l'errore in questione, il software non registrerà l'invio del referto e provvederà a tentare la pubblicazione dopo un periodo di tempo prestabilito (configurabile)</t>
+  </si>
+  <si>
+    <t>2025-03-27T16:44:39Z</t>
+  </si>
+  <si>
+    <t>4c98347181337c19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.f792784dd0e74be1cd54040c3db3006e4da4149cc442a7daeec73f151365c4c5.8ef6862c28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2971,7 +2971,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3417,13 +3417,13 @@
         <v>45693</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>47</v>
@@ -3437,7 +3437,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="38" t="s">
         <v>47</v>
@@ -3449,7 +3449,7 @@
         <v>47</v>
       </c>
       <c r="S13" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
@@ -3478,13 +3478,13 @@
         <v>45693</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J14" s="38" t="s">
         <v>47</v>
@@ -3498,7 +3498,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P14" s="38" t="s">
         <v>47</v>
@@ -3510,7 +3510,7 @@
         <v>47</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
@@ -3553,7 +3553,7 @@
         <v>47</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P15" s="38" t="s">
         <v>47</v>
@@ -3565,7 +3565,7 @@
         <v>47</v>
       </c>
       <c r="S15" s="38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
@@ -3596,13 +3596,13 @@
         <v>45692</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J16" s="38" t="s">
         <v>47</v>
@@ -3616,7 +3616,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P16" s="38" t="s">
         <v>47</v>
@@ -3628,7 +3628,7 @@
         <v>47</v>
       </c>
       <c r="S16" s="38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
@@ -3821,13 +3821,13 @@
         <v>45327</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>47</v>
@@ -3841,7 +3841,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>70</v>
@@ -3853,7 +3853,7 @@
         <v>47</v>
       </c>
       <c r="S21" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -4084,16 +4084,16 @@
         <v>127</v>
       </c>
       <c r="F27" s="36">
-        <v>45692</v>
+        <v>45743</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="J27" s="38" t="s">
         <v>47</v>
@@ -10506,27 +10506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10784,32 +10763,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10826,4 +10801,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>